--- a/biology/Médecine/IKZF1/IKZF1.xlsx
+++ b/biology/Médecine/IKZF1/IKZF1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'IKZF1 (pour « Ikaros Zinc finger protein 1 » est une protéine à doigt de zinc, jouant un rôle de facteur de transcription. Son gène est le IKZF1 situé sur le chromosome 7 humain.
 </t>
@@ -511,9 +523,11 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il intervient dans la différenciation des lymphocytes[5]. Il interagit avec le promoteur du gène de la terminal deoxynucleotidyl transferase, favorisant sa transcription[6]. Il se fixe particulièrement sur la zone péri-centromérique des chromosomes[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il intervient dans la différenciation des lymphocytes. Il interagit avec le promoteur du gène de la terminal deoxynucleotidyl transferase, favorisant sa transcription. Il se fixe particulièrement sur la zone péri-centromérique des chromosomes.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une mutation du gène provoque un type d'hypogammaglobulinémie commune d'expression variable[8].
-L'iberdomide favorise la destruction de l'IK7F1[9] et pourrait contribuer, par ce biais, au traitement du lupus érythémateux disséminé[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une mutation du gène provoque un type d'hypogammaglobulinémie commune d'expression variable.
+L'iberdomide favorise la destruction de l'IK7F1 et pourrait contribuer, par ce biais, au traitement du lupus érythémateux disséminé.
 </t>
         </is>
       </c>
